--- a/xlsx_parcer/bin/Debug/net5.0/Excel.xlsx
+++ b/xlsx_parcer/bin/Debug/net5.0/Excel.xlsx
@@ -16,9 +16,741 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Hello World!</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="246">
+  <si>
+    <t>"5012056448"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УПРАВЛЯЮЩАЯ КОМПАНИЯ "ДЕСА""</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>5414.00</t>
+  </si>
+  <si>
+    <t>"7704238186"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ МЕДИЦИНСКИЙ ЦЕНТР "АРБАЛЬ"</t>
+  </si>
+  <si>
+    <t>4803.39</t>
+  </si>
+  <si>
+    <t>"5012056663"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИНАНС СТАЙЛ"</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>"2208021109"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЦЕНТР МИКРОФИНАНСИРОВАНИЯ Г.НОВОАЛТАЙСК"</t>
+  </si>
+  <si>
+    <t>34774.68</t>
+  </si>
+  <si>
+    <t>"7709534446"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКМ"</t>
+  </si>
+  <si>
+    <t>89094.18</t>
+  </si>
+  <si>
+    <t>"5012056889"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МАКРО"</t>
+  </si>
+  <si>
+    <t>УСНО</t>
+  </si>
+  <si>
+    <t>2677.00</t>
+  </si>
+  <si>
+    <t>"6672189742"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭНЕРГОАРМ"</t>
+  </si>
+  <si>
+    <t>"7703513665"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "ШЕРИФ-ПРЕМЬЕР"</t>
+  </si>
+  <si>
+    <t>155528.38</t>
+  </si>
+  <si>
+    <t>"5838044439"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПАНАЦЕЯ"</t>
+  </si>
+  <si>
+    <t>51242.19</t>
+  </si>
+  <si>
+    <t>"1655187104"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БАРС МЕДИКА"</t>
+  </si>
+  <si>
+    <t>14437.00</t>
+  </si>
+  <si>
+    <t>"7726256414"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИВМ МЕДСЕРВИС"</t>
+  </si>
+  <si>
+    <t>"1661024845"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВОЛАКОМ"</t>
+  </si>
+  <si>
+    <t>519559.44</t>
+  </si>
+  <si>
+    <t>"2208020923"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТУЗ-2"</t>
+  </si>
+  <si>
+    <t>"7701528024"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "РОСТ"</t>
+  </si>
+  <si>
+    <t>"2208020955"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПЕРСПЕКТИВА"</t>
+  </si>
+  <si>
+    <t>16885.79</t>
+  </si>
+  <si>
+    <t>"7735109293"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КАВАТИНА-ТЕХНО"</t>
+  </si>
+  <si>
+    <t>120126.00</t>
+  </si>
+  <si>
+    <t>"5836311544"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭЛЬБРУС"</t>
+  </si>
+  <si>
+    <t>177270.37</t>
+  </si>
+  <si>
+    <t>"7701283254"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НОВИТЕКС ТРАНСЛЕЙШН"</t>
+  </si>
+  <si>
+    <t>54281.10</t>
+  </si>
+  <si>
+    <t>"5012056423"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОЕКТ-СЕРВИС ГРУПП"</t>
+  </si>
+  <si>
+    <t>"5262080740"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДИАТОН"</t>
+  </si>
+  <si>
+    <t>"7724824380"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АСУС"</t>
+  </si>
+  <si>
+    <t>"5262108610"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕНТКОНСАЛТ"</t>
+  </si>
+  <si>
+    <t>"7717506160"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СНЕЖАНА"</t>
+  </si>
+  <si>
+    <t>1641522.73</t>
+  </si>
+  <si>
+    <t>"5012056543"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФАВОРИТ МОТОРС Р"</t>
+  </si>
+  <si>
+    <t>9184013.08</t>
+  </si>
+  <si>
+    <t>"6672189679"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ГРУППА КОМПАНИЙ "ТЕХНОЛОГИЯ РЕСУРСОВ"</t>
+  </si>
+  <si>
+    <t>"5012056494"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕККО ПРОМ"</t>
+  </si>
+  <si>
+    <t>3453178.29</t>
+  </si>
+  <si>
+    <t>"2209040376"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКО ДОМ"</t>
+  </si>
+  <si>
+    <t>"7727506480"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БАЗИС"</t>
+  </si>
+  <si>
+    <t>"5262068365"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ХАРМАН"</t>
+  </si>
+  <si>
+    <t>40806.50</t>
+  </si>
+  <si>
+    <t>"5012057113"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АВТОХАРТ"</t>
+  </si>
+  <si>
+    <t>"2281005975"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛТАЙСКИЕ НИВЫ"</t>
+  </si>
+  <si>
+    <t>"1657090443"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АТЛАНТ"</t>
+  </si>
+  <si>
+    <t>"5834034775"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТОРГОВЫЙ РЯД"</t>
+  </si>
+  <si>
+    <t>"7714866060"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БЕСТМЕМОРИ"</t>
+  </si>
+  <si>
+    <t>"7715037763"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛАКИ-В"</t>
+  </si>
+  <si>
+    <t>"1660134355"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИНАНСОВЫЕ СИСТЕМЫ"</t>
+  </si>
+  <si>
+    <t>1638.00</t>
+  </si>
+  <si>
+    <t>"5262100080"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПАНИЯ ЗЕЛЕНЫЙ ГОРОД"</t>
+  </si>
+  <si>
+    <t>37112.79</t>
+  </si>
+  <si>
+    <t>"5012056790"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЕС-ФИНАНС"</t>
+  </si>
+  <si>
+    <t>"7604138741"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПЬЮТЕРЫ НА КОМСОМОЛЬСКОЙ"</t>
+  </si>
+  <si>
+    <t>"5262099405"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГРАНД ЛАЙН-НН"</t>
+  </si>
+  <si>
+    <t>4825027.54</t>
+  </si>
+  <si>
+    <t>"2209040457"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ МИКРОКРЕДИТНАЯ КОМПАНИЯ "ДЕНЬГИ В ДОЛГ НСК"</t>
+  </si>
+  <si>
+    <t>3575534.00</t>
+  </si>
+  <si>
+    <t>"1840000390"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВАШ КОНСУЛЬТАНТ"</t>
+  </si>
+  <si>
+    <t>2324820.54</t>
+  </si>
+  <si>
+    <t>"1655186990"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АГРОПРОМЫШЛЕННЫЕ ТЕХНОЛОГИИ"</t>
+  </si>
+  <si>
+    <t>"2208021099"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИЦИНСКИЙ ДИАГНОСТИЧЕСКИЙ ЦЕНТР "ТОМОГРАФИЯ ПЛЮС""</t>
+  </si>
+  <si>
+    <t>1899.00</t>
+  </si>
+  <si>
+    <t>"1655186894"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЮНИТЕК"</t>
+  </si>
+  <si>
+    <t>"5012056624"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СЛАВИЧ"</t>
+  </si>
+  <si>
+    <t>"7727506441"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИМПЕКС РЕСУРС"</t>
+  </si>
+  <si>
+    <t>"6672189936"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БОН - КАФЕ"</t>
+  </si>
+  <si>
+    <t>"7604138188"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АНИТУР"</t>
+  </si>
+  <si>
+    <t>"2208021003"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЭЛЕКТРОТЕХНИЧЕСКАЯ КОМПАНИЯ  "ВИТИМ"</t>
+  </si>
+  <si>
+    <t>"5012056399"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДАНА"</t>
+  </si>
+  <si>
+    <t>45135.79</t>
+  </si>
+  <si>
+    <t>"2209040432"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РУБЦОВСКИЙ МЕТАЛЛУРГИЧЕСКИЙ ЗАВОД"</t>
+  </si>
+  <si>
+    <t>18078.83</t>
+  </si>
+  <si>
+    <t>"7719202104"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АГЕНТСТВО ПРОФЕССИОНАЛЬНОГО МЕНЕДЖМЕНТА И КОНСАЛТИНГА"</t>
+  </si>
+  <si>
+    <t>"5012056984"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ХАНТЕР-РУ"</t>
+  </si>
+  <si>
+    <t>58876.45</t>
+  </si>
+  <si>
+    <t>"5262111437"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГОРОДЕЦКИЙ РЫНОК"</t>
+  </si>
+  <si>
+    <t>163836.91</t>
+  </si>
+  <si>
+    <t>"5012056350"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЖИЛИНВЕСТ"</t>
+  </si>
+  <si>
+    <t>1530.00</t>
+  </si>
+  <si>
+    <t>"7710257780"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЙБИСИ РЕАЛ ЭСТЕЙТ"</t>
+  </si>
+  <si>
+    <t>350051.00</t>
+  </si>
+  <si>
+    <t>"6670099998"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АКРОН"</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>"1655187136"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ " ДЕТСКИЙ ОПТОВЫЙ ЦЕНТР -КАЗАНЬ"</t>
+  </si>
+  <si>
+    <t>870.00</t>
+  </si>
+  <si>
+    <t>"2281005990"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГОРДЕЕВСКИЙ КОМБИКОРМОВЫЙ ЗАВОД"</t>
+  </si>
+  <si>
+    <t>"1655186862"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКСПЕРИМЕНТАЛЬНО - ПРОИЗВОДСТВЕННЫЙ ЗАВОД ВОЛЖСКО-КАМСКОГО НАУЧНО-ИССЛЕДОВАТЕЛЬСКОГО И КОНСТРУКТОРСКО-ТЕХНОЛОГИЧЕСКОГО ИНСТИУТА ВОДНОГО ЛЕСОТРАНСПОРТА"</t>
+  </si>
+  <si>
+    <t>112137.00</t>
+  </si>
+  <si>
+    <t>"5262111300"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОНСТРУКТОРСКОЕ БЮРО "СИТЕХ""</t>
+  </si>
+  <si>
+    <t>"5012057057"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙ-ПРОЕКТ"ГЕРАТ""</t>
+  </si>
+  <si>
+    <t>1313.00</t>
+  </si>
+  <si>
+    <t>"1655186968"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛАКШЕРИ ТРЕВЕЛ"</t>
+  </si>
+  <si>
+    <t>144361.44</t>
+  </si>
+  <si>
+    <t>"1658113679"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СКИФИЯ"</t>
+  </si>
+  <si>
+    <t>"2209040383"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭНЕРГОСТРОЙ"</t>
+  </si>
+  <si>
+    <t>85912.00</t>
+  </si>
+  <si>
+    <t>"2208020930"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНТЕК"</t>
+  </si>
+  <si>
+    <t>"2281005943"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НОВЫЙ ДЕНЬ"</t>
+  </si>
+  <si>
+    <t>"5012057000"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УПРАВЛЯЮЩАЯ КОМПАНИЯ Л7"</t>
+  </si>
+  <si>
+    <t>45010.50</t>
+  </si>
+  <si>
+    <t>"2281005950"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРЕСТИЖ"</t>
+  </si>
+  <si>
+    <t>13354.92</t>
+  </si>
+  <si>
+    <t>"1840000375"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙ-ДОМ"</t>
+  </si>
+  <si>
+    <t>"2209040337"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОМСЕРВИС ПЛЮС"</t>
+  </si>
+  <si>
+    <t>"5012056751"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ " ИГРОВЫЕ ТЕХНОЛОГИИ"</t>
+  </si>
+  <si>
+    <t>"1655186904"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНВЕСТИЦИОННАЯ КОМПАНИЯ "ЭРИДАН""</t>
+  </si>
+  <si>
+    <t>"5012057152"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНЖ-СЕРВИС"</t>
+  </si>
+  <si>
+    <t>"5012056720"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭЛИС"</t>
+  </si>
+  <si>
+    <t>"5012056374"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "БЛОКПОСТ""</t>
+  </si>
+  <si>
+    <t>"1657090394"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОФИНФОРМСИСТЕМЫ"</t>
+  </si>
+  <si>
+    <t>"5012056511"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "МЕДВЕДЬ"</t>
+  </si>
+  <si>
+    <t>"2208020994"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЖИТНИЦА АЛТАЯ"</t>
+  </si>
+  <si>
+    <t>"5012056416"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АКВА-С"</t>
+  </si>
+  <si>
+    <t>338447.00</t>
+  </si>
+  <si>
+    <t>"7717097567"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКСПОНОВА"</t>
+  </si>
+  <si>
+    <t>"5262073358"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОНЦЕРН "РУСТ""</t>
+  </si>
+  <si>
+    <t>"7604138565"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТОРГОВЫЙ ДОМ "ФОРТ-СБ"</t>
+  </si>
+  <si>
+    <t>87353.00</t>
+  </si>
+  <si>
+    <t>"5262111282"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВОЛГА-ДЕНТ"</t>
+  </si>
+  <si>
+    <t>134810.00</t>
+  </si>
+  <si>
+    <t>"2209040351"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДОРОЖНАЯ ИНФРАСТРУКТУРА"</t>
+  </si>
+  <si>
+    <t>39729.00</t>
+  </si>
+  <si>
+    <t>"7735529298"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РАСМО"</t>
+  </si>
+  <si>
+    <t>"1657090404"</t>
+  </si>
+  <si>
+    <t>АКЦИОНЕРНОЕ ОБЩЕСТВО "СОЦИАЛЬНАЯ КАРТА"</t>
+  </si>
+  <si>
+    <t>"5262111388"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТОРГОВО-ПРОМЫШЛЕННАЯ ГРУППА "СПЛИН"</t>
+  </si>
+  <si>
+    <t>"1657090411"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СИЛИКОНЫ ПОВОЛЖЬЯ"</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>"5262111349"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НИКОС"</t>
+  </si>
+  <si>
+    <t>"7604138438"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЮКОН"</t>
+  </si>
+  <si>
+    <t>1232.00</t>
+  </si>
+  <si>
+    <t>"1840000382"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПОРТ АКТИВ"</t>
+  </si>
+  <si>
+    <t>136667.00</t>
+  </si>
+  <si>
+    <t>"6321234611"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВИЗА"</t>
+  </si>
+  <si>
+    <t>"5012056504"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТАЛИСМАН"</t>
+  </si>
+  <si>
+    <t>"1660134316"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХНОГРУПП"</t>
+  </si>
+  <si>
+    <t>"1657090436"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АСПЕНСНАБ"</t>
+  </si>
+  <si>
+    <t>"7604138526"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФОРТСНАБ"</t>
+  </si>
+  <si>
+    <t>"7604138269"</t>
+  </si>
+  <si>
+    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВОЛГА КОЛОР КОУТИНГС"</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2023 Aspose Pty Ltd.</t>
@@ -476,16 +1208,1421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93e9099d-49fd-4ea6-91cf-8218a87f39d5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b81a354b-e0a0-42ac-b33f-1617c3ae5f79}">
+  <dimension ref="A2:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75">
-      <c r="A1" t="s">
+    <row r="2" spans="1:6" ht="12.75">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.75">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.75">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.75">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.75">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.75">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.75">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.75">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.75">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75">
+      <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.75">
+      <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.75">
+      <c r="A53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.75">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12.75">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.75">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12.75">
+      <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="12.75">
+      <c r="A58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="12.75">
+      <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="12.75">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="12.75">
+      <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="12.75">
+      <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="12.75">
+      <c r="A63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="12.75">
+      <c r="A64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.75">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.75">
+      <c r="A66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12.75">
+      <c r="A67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.75">
+      <c r="A68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="12.75">
+      <c r="A69" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.75">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="12.75">
+      <c r="A71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="12.75">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="12.75">
+      <c r="A73" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="12.75">
+      <c r="A74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" t="s">
+        <v>185</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="12.75">
+      <c r="A75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="12.75">
+      <c r="A76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="12.75">
+      <c r="A77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="12.75">
+      <c r="A78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="12.75">
+      <c r="A79" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="12.75">
+      <c r="A80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="12.75">
+      <c r="A81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="12.75">
+      <c r="A82" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="12.75">
+      <c r="A83" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="12.75">
+      <c r="A84" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="12.75">
+      <c r="A85" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="12.75">
+      <c r="A86" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12.75">
+      <c r="A87" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12.75">
+      <c r="A88" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88" t="s">
+        <v>217</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="12.75">
+      <c r="A89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="12.75">
+      <c r="A90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>221</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="12.75">
+      <c r="A91" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" t="s">
+        <v>223</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="12.75">
+      <c r="A92" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" t="s">
+        <v>226</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12.75">
+      <c r="A93" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="12.75">
+      <c r="A94" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" t="s">
+        <v>231</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12.75">
+      <c r="A95" t="s">
+        <v>233</v>
+      </c>
+      <c r="C95" t="s">
+        <v>234</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12.75">
+      <c r="A96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" t="s">
+        <v>236</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="12.75">
+      <c r="A97" t="s">
+        <v>237</v>
+      </c>
+      <c r="C97" t="s">
+        <v>238</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="12.75">
+      <c r="A98" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" t="s">
+        <v>240</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="12.75">
+      <c r="A99" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" t="s">
+        <v>242</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="12.75">
+      <c r="A100" t="s">
+        <v>243</v>
+      </c>
+      <c r="C100" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04bb54ab-a59c-4fb0-a499-fddc38f1a203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6fecf4d0-7df9-4689-9b0b-dcf6d6d23a6f}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -503,7 +2640,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
